--- a/PEA-PWR-proj3/testData/testsData.xlsx
+++ b/PEA-PWR-proj3/testData/testsData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F702609-D104-4D1D-8176-8DB9534660B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0064CC3-CA7B-443F-8F04-B59DD0896E08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SYM - 17" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
   <si>
     <t>L.miast</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ATSP - ftv170</t>
   </si>
   <si>
-    <t>Średnia ATSP &amp; STSP</t>
-  </si>
-  <si>
     <t xml:space="preserve">CZAS: </t>
   </si>
   <si>
@@ -118,6 +115,21 @@
   </si>
   <si>
     <t>10s</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>STSP</t>
+  </si>
+  <si>
+    <t>ATSP</t>
+  </si>
+  <si>
+    <t>STSP &amp; ATSP</t>
+  </si>
+  <si>
+    <t>Średnia arytmetyczna uzyskanych wyników</t>
   </si>
 </sst>
 </file>
@@ -169,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +200,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -207,6 +225,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -375,10 +406,53 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -391,8 +465,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -405,7 +505,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -414,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,41 +522,62 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -694,6 +815,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>STSP - gr17 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1171,6 +1323,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>STSP - gr48</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2332,6 +2519,59 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>STSP - gr96 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2344,10 +2584,24 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:srgbClr val="44546A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4802,6 +5056,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>STSP - pr136 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8316,6 +8609,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ATSP - br17 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8732,6 +9064,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ATSP - ftv47 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9485,6 +9856,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ATSP - ftv70 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10597,6 +11007,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ATSP - ftv170 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Błędu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/iteracja</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17879,8 +18328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17891,7 +18340,7 @@
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -18080,16 +18529,16 @@
         <f t="shared" si="0"/>
         <v>4.412470023980819</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -18113,16 +18562,16 @@
         <f t="shared" si="0"/>
         <v>4.5083932853716924</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>70</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.15</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.9</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>2.5419664268585107</v>
       </c>
     </row>
@@ -18146,7 +18595,7 @@
         <f t="shared" si="0"/>
         <v>4.6522781774580357</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>70</v>
       </c>
       <c r="J10" s="6">
@@ -18155,7 +18604,7 @@
       <c r="K10" s="6">
         <v>1</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>3.2134292565947131</v>
       </c>
     </row>
@@ -18179,7 +18628,7 @@
         <f t="shared" si="0"/>
         <v>4.7002398081534835</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>70</v>
       </c>
       <c r="J11" s="5">
@@ -18188,7 +18637,7 @@
       <c r="K11" s="5">
         <v>0.5</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>3.4052757793765043</v>
       </c>
     </row>
@@ -18212,7 +18661,7 @@
         <f t="shared" si="0"/>
         <v>4.7482014388489313</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>50</v>
       </c>
       <c r="J12" s="6">
@@ -18221,7 +18670,7 @@
       <c r="K12" s="6">
         <v>1</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>3.9808153477218333</v>
       </c>
     </row>
@@ -18245,7 +18694,7 @@
         <f t="shared" si="0"/>
         <v>4.7961630695443569</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>70</v>
       </c>
       <c r="J13" s="5">
@@ -18254,7 +18703,7 @@
       <c r="K13" s="5">
         <v>0.8</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>4.2685851318944756</v>
       </c>
     </row>
@@ -18278,19 +18727,19 @@
         <f t="shared" si="0"/>
         <v>4.8441247002398047</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>67.333333333333329</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="22">
         <f t="shared" ref="J14:K14" si="1">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>0.15</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0.85333333333333339</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18335,11 +18784,11 @@
         <f t="shared" si="0"/>
         <v>5.0359712230215736</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18362,10 +18811,10 @@
         <f t="shared" si="0"/>
         <v>5.5155875299760293</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>0</v>
       </c>
     </row>
@@ -18390,13 +18839,13 @@
         <v>5.5635491606714549</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -20355,7 +20804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CB3762-8069-4470-AC4A-1FB768A63DDB}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16:J17"/>
     </sheetView>
   </sheetViews>
@@ -20367,7 +20816,7 @@
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
@@ -20556,16 +21005,16 @@
         <f t="shared" si="0"/>
         <v>46.056282203725729</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -20589,16 +21038,16 @@
         <f t="shared" si="0"/>
         <v>46.710265556876742</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>70</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.15</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>38.783194609591767</v>
       </c>
     </row>
@@ -20622,7 +21071,7 @@
         <f t="shared" si="0"/>
         <v>47.344431232659524</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>70</v>
       </c>
       <c r="J10" s="6">
@@ -20631,7 +21080,7 @@
       <c r="K10" s="6">
         <v>0.6</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>39.556084026952036</v>
       </c>
     </row>
@@ -20655,7 +21104,7 @@
         <f t="shared" si="0"/>
         <v>47.403884264764159</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>70</v>
       </c>
       <c r="J11" s="5">
@@ -20664,7 +21113,7 @@
       <c r="K11" s="5">
         <v>0.9</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>41.835116924296464</v>
       </c>
     </row>
@@ -20688,7 +21137,7 @@
         <f t="shared" si="0"/>
         <v>47.720967102655564</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>50</v>
       </c>
       <c r="J12" s="6">
@@ -20697,7 +21146,7 @@
       <c r="K12" s="6">
         <v>0.6</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>44.272691240586596</v>
       </c>
     </row>
@@ -20721,7 +21170,7 @@
         <f t="shared" si="0"/>
         <v>47.800237812128408</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>70</v>
       </c>
       <c r="J13" s="5">
@@ -20730,7 +21179,7 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>45.600475624256845</v>
       </c>
     </row>
@@ -20754,19 +21203,19 @@
         <f t="shared" si="0"/>
         <v>47.820055489496639</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>67.333333333333329</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f>((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>0.14666666666666667</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" ref="J14:K14" si="1">((K9*5) + (K10*4) + (K11*3) + (K12*2) + K13)/15</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20811,11 +21260,11 @@
         <f t="shared" si="0"/>
         <v>48.137138327388044</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>24</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20838,10 +21287,10 @@
         <f t="shared" si="0"/>
         <v>48.216409036860888</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>13.7</v>
       </c>
     </row>
@@ -20866,13 +21315,13 @@
         <v>48.434403487911212</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -24121,7 +24570,7 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="I16" sqref="I16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24131,7 +24580,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -24320,16 +24769,16 @@
         <f t="shared" si="0"/>
         <v>91.53398902352879</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24353,16 +24802,16 @@
         <f t="shared" si="0"/>
         <v>91.553913311235476</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.1</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.9</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>88.385951565867884</v>
       </c>
     </row>
@@ -24386,7 +24835,7 @@
         <f t="shared" si="0"/>
         <v>91.662591244181215</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>30</v>
       </c>
       <c r="J10" s="6">
@@ -24395,7 +24844,7 @@
       <c r="K10" s="6">
         <v>0.6</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>89.432882319911599</v>
       </c>
     </row>
@@ -24419,7 +24868,7 @@
         <f t="shared" si="0"/>
         <v>91.9850024452535</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>70</v>
       </c>
       <c r="J11" s="5">
@@ -24428,7 +24877,7 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>90.155590574000627</v>
       </c>
     </row>
@@ -24452,7 +24901,7 @@
         <f t="shared" si="0"/>
         <v>92.028473618431789</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -24461,7 +24910,7 @@
       <c r="K12" s="6">
         <v>0.8</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>90.423662808600042</v>
       </c>
     </row>
@@ -24485,7 +24934,7 @@
         <f t="shared" si="0"/>
         <v>92.296545853031205</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>70</v>
       </c>
       <c r="J13" s="5">
@@ -24494,7 +24943,7 @@
       <c r="K13" s="5">
         <v>0.8</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>90.921770001267916</v>
       </c>
     </row>
@@ -24518,19 +24967,19 @@
         <f t="shared" si="0"/>
         <v>92.709521998224929</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>31.333333333333332</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f t="shared" ref="J14:K14" si="1">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24575,11 +25024,11 @@
         <f t="shared" si="0"/>
         <v>93.408683366842354</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>23</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24602,10 +25051,10 @@
         <f t="shared" si="0"/>
         <v>94.227390461700082</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>53.4</v>
       </c>
     </row>
@@ -24630,13 +25079,13 @@
         <v>94.468293213063092</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -30515,8 +30964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55EFD8-ABD4-4FCD-BE92-40B9F19CDA9B}">
   <dimension ref="A1:L553"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30526,7 +30975,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -30715,16 +31164,16 @@
         <f t="shared" si="0"/>
         <v>121.81519447774151</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -30748,16 +31197,16 @@
         <f t="shared" si="0"/>
         <v>121.94953085603272</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>30</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.05</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.7</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>118.07857644773283</v>
       </c>
     </row>
@@ -30781,7 +31230,7 @@
         <f t="shared" si="0"/>
         <v>122.21923696937131</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -30790,7 +31239,7 @@
       <c r="K10" s="6">
         <v>1</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>119.23696937130575</v>
       </c>
     </row>
@@ -30814,7 +31263,7 @@
         <f t="shared" si="0"/>
         <v>123.2133261687265</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -30823,7 +31272,7 @@
       <c r="K11" s="5">
         <v>0.5</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>119.43847393874263</v>
       </c>
     </row>
@@ -30847,7 +31296,7 @@
         <f t="shared" si="0"/>
         <v>123.29496135245735</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -30856,7 +31305,7 @@
       <c r="K12" s="6">
         <v>0.9</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>120.32302732195261</v>
       </c>
     </row>
@@ -30880,7 +31329,7 @@
         <f t="shared" si="0"/>
         <v>123.40759723887076</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>30</v>
       </c>
       <c r="J13" s="5">
@@ -30889,7 +31338,7 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>120.42636299756127</v>
       </c>
     </row>
@@ -30913,19 +31362,19 @@
         <f t="shared" si="0"/>
         <v>123.63700243872194</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>18</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f t="shared" ref="J14:K14" si="1">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0.78666666666666674</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -30970,11 +31419,11 @@
         <f t="shared" si="0"/>
         <v>124.18468151944779</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>22</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30997,10 +31446,10 @@
         <f t="shared" si="0"/>
         <v>124.62799156780888</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -31025,13 +31474,13 @@
         <v>125.08783532426735</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -38962,8 +39411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38F7A15-FA88-4EA5-8E1E-9496B8EBCA0A}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38973,7 +39422,7 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -39162,16 +39611,16 @@
         <f t="shared" si="0"/>
         <v>2.564102564102555</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -39195,16 +39644,16 @@
         <f t="shared" si="0"/>
         <v>2.564102564102555</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>50</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.15</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.5</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>2.564102564102555</v>
       </c>
     </row>
@@ -39228,7 +39677,7 @@
         <f t="shared" si="0"/>
         <v>2.564102564102555</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>50</v>
       </c>
       <c r="J10" s="6">
@@ -39237,7 +39686,7 @@
       <c r="K10" s="6">
         <v>0.7</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>2.564102564102555</v>
       </c>
     </row>
@@ -39261,7 +39710,7 @@
         <f t="shared" si="0"/>
         <v>2.564102564102555</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>50</v>
       </c>
       <c r="J11" s="5">
@@ -39270,7 +39719,7 @@
       <c r="K11" s="5">
         <v>0.8</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>2.564102564102555</v>
       </c>
     </row>
@@ -39294,7 +39743,7 @@
         <f t="shared" si="0"/>
         <v>5.1282051282051322</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>50</v>
       </c>
       <c r="J12" s="6">
@@ -39303,7 +39752,7 @@
       <c r="K12" s="6">
         <v>0.9</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>2.564102564102555</v>
       </c>
     </row>
@@ -39327,7 +39776,7 @@
         <f t="shared" si="0"/>
         <v>5.1282051282051322</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>50</v>
       </c>
       <c r="J13" s="5">
@@ -39336,7 +39785,7 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>2.564102564102555</v>
       </c>
     </row>
@@ -39360,19 +39809,19 @@
         <f t="shared" si="0"/>
         <v>5.1282051282051322</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>50</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f t="shared" ref="J14:K14" si="1">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>0.15</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39417,11 +39866,11 @@
         <f t="shared" si="0"/>
         <v>5.1282051282051322</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>26</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39444,10 +39893,10 @@
         <f t="shared" si="0"/>
         <v>5.1282051282051322</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>0</v>
       </c>
     </row>
@@ -39472,13 +39921,13 @@
         <v>5.1282051282051322</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -41336,8 +41785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D14ECC-BACF-4C58-81A7-1CAD57741238}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41347,7 +41796,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -41536,16 +41985,16 @@
         <f t="shared" si="0"/>
         <v>57.77027027027026</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41569,16 +42018,16 @@
         <f t="shared" si="0"/>
         <v>58.108108108108112</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.15</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>53.378378378378379</v>
       </c>
     </row>
@@ -41602,7 +42051,7 @@
         <f t="shared" si="0"/>
         <v>58.277027027027017</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -41611,7 +42060,7 @@
       <c r="K10" s="6">
         <v>0.8</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>56.193693693693689</v>
       </c>
     </row>
@@ -41635,7 +42084,7 @@
         <f t="shared" si="0"/>
         <v>58.445945945945944</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>30</v>
       </c>
       <c r="J11" s="5">
@@ -41644,7 +42093,7 @@
       <c r="K11" s="5">
         <v>0.9</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>56.869369369369373</v>
       </c>
     </row>
@@ -41668,7 +42117,7 @@
         <f t="shared" si="0"/>
         <v>58.671171171171174</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>30</v>
       </c>
       <c r="J12" s="6">
@@ -41677,7 +42126,7 @@
       <c r="K12" s="6">
         <v>0.7</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>56.981981981981988</v>
       </c>
     </row>
@@ -41701,7 +42150,7 @@
         <f t="shared" si="0"/>
         <v>58.840090090090079</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -41710,7 +42159,7 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>57.094594594594604</v>
       </c>
     </row>
@@ -41734,19 +42183,19 @@
         <f t="shared" si="0"/>
         <v>59.065315315315317</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f t="shared" ref="J14:K14" si="1">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>0.12000000000000001</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0.8866666666666666</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41791,11 +42240,11 @@
         <f t="shared" si="0"/>
         <v>59.290540540540547</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>27</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41818,10 +42267,10 @@
         <f t="shared" si="0"/>
         <v>59.909909909909921</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>13.8</v>
       </c>
     </row>
@@ -41846,13 +42295,13 @@
         <v>60.022522522522515</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -44270,8 +44719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41517638-097A-4D59-8E21-1640EA20871F}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44280,7 +44729,7 @@
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -44470,16 +44919,16 @@
         <f t="shared" si="0"/>
         <v>89.128205128205124</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -44503,16 +44952,16 @@
         <f t="shared" si="0"/>
         <v>89.230769230769226</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.15</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.6</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>87.487179487179475</v>
       </c>
     </row>
@@ -44536,7 +44985,7 @@
         <f t="shared" si="0"/>
         <v>89.743589743589737</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -44545,7 +44994,7 @@
       <c r="K10" s="6">
         <v>0.7</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>87.538461538461547</v>
       </c>
     </row>
@@ -44569,7 +45018,7 @@
         <f t="shared" si="0"/>
         <v>89.794871794871796</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -44578,7 +45027,7 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>88.410256410256409</v>
       </c>
     </row>
@@ -44602,7 +45051,7 @@
         <f t="shared" si="0"/>
         <v>90.051282051282058</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -44611,7 +45060,7 @@
       <c r="K12" s="6">
         <v>0.8</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>88.769230769230774</v>
       </c>
     </row>
@@ -44635,7 +45084,7 @@
         <f t="shared" si="0"/>
         <v>90.461538461538453</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>30</v>
       </c>
       <c r="J13" s="5">
@@ -44644,7 +45093,7 @@
       <c r="K13" s="5">
         <v>0.8</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>88.923076923076934</v>
       </c>
     </row>
@@ -44668,19 +45117,19 @@
         <f t="shared" si="0"/>
         <v>90.564102564102569</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f t="shared" ref="J14:K14" si="1">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>0.14333333333333334</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>0.7466666666666667</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -44725,11 +45174,11 @@
         <f t="shared" si="0"/>
         <v>91.487179487179475</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>27</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -44752,10 +45201,10 @@
         <f t="shared" si="0"/>
         <v>91.538461538461547</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>41.1</v>
       </c>
     </row>
@@ -44780,13 +45229,13 @@
         <v>91.743589743589737</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -47923,8 +48372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4545DB-5A9A-4B59-B12C-2F1D46335587}">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="K365" activeCellId="1" sqref="I18:I365 K18:K365"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47933,7 +48382,7 @@
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -47963,7 +48412,7 @@
       <c r="A2">
         <v>170</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="38">
         <v>7844</v>
       </c>
       <c r="C2">
@@ -48123,16 +48572,16 @@
         <f>((B8/$H$3)-1)*100</f>
         <v>190.09074410163339</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -48156,16 +48605,16 @@
         <f>((B9/$H$3)-1)*100</f>
         <v>190.70780399274048</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>30</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>0.05</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.6</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>184.71869328493648</v>
       </c>
     </row>
@@ -48189,7 +48638,7 @@
         <f>((B10/$H$3)-1)*100</f>
         <v>191.43375680580763</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>30</v>
       </c>
       <c r="J10" s="6">
@@ -48198,7 +48647,7 @@
       <c r="K10" s="6">
         <v>0.5</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>185.2268602540835</v>
       </c>
     </row>
@@ -48222,7 +48671,7 @@
         <f>((B11/$H$3)-1)*100</f>
         <v>191.50635208711435</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -48231,7 +48680,7 @@
       <c r="K11" s="5">
         <v>0.7</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="16">
         <v>186.06170598911072</v>
       </c>
     </row>
@@ -48255,7 +48704,7 @@
         <f>((B12/$H$3)-1)*100</f>
         <v>192.26860254083485</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -48264,7 +48713,7 @@
       <c r="K12" s="6">
         <v>0.8</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>188.78402903811252</v>
       </c>
     </row>
@@ -48288,7 +48737,7 @@
         <f>((B13/$H$3)-1)*100</f>
         <v>193.28493647912887</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>30</v>
       </c>
       <c r="J13" s="5">
@@ -48297,7 +48746,7 @@
       <c r="K13" s="5">
         <v>0.9</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>188.78402903811252</v>
       </c>
     </row>
@@ -48321,19 +48770,19 @@
         <f>((B14/$H$3)-1)*100</f>
         <v>195.13611615245009</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <f>((I9*5) + (I10*4) + (I11*3) + (I12*2) + I13)/15</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="23">
         <f t="shared" ref="J14:K14" si="0">((J9*5) + (J10*4) + (J11*3) + (J12*2) + J13)/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -48378,11 +48827,11 @@
         <f>((B16/$H$3)-1)*100</f>
         <v>195.53539019963702</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>23</v>
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -48405,10 +48854,10 @@
         <f>((B17/$H$3)-1)*100</f>
         <v>195.7168784029038</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="33">
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="30">
         <v>152.19999999999999</v>
       </c>
     </row>
@@ -48433,13 +48882,13 @@
         <v>195.93466424682396</v>
       </c>
       <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -54112,19 +54561,20 @@
     <mergeCell ref="I7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4E79CD-302B-4754-AE6E-E476EAE53CDE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="D3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54132,44 +54582,91 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="G5" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="40">
+        <f>('SYM - 17'!I14 + 'SYM - 48'!I14 + 'SYM - 96'!I14 +'SYM - 136'!I14)/4</f>
+        <v>46</v>
+      </c>
+      <c r="F6" s="41">
+        <f>('SYM - 17'!J14 + 'SYM - 48'!J14 + 'SYM - 96'!J14 +'SYM - 136'!J14)/4</f>
+        <v>0.11916666666666666</v>
+      </c>
+      <c r="G6" s="42">
+        <f>('SYM - 17'!K14 + 'SYM - 48'!K14 + 'SYM - 96'!K14 +'SYM - 136'!K14)/4</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="25">
+        <f>('ASY - 17'!I14+'ASY - 47'!I14+'ASY - 70'!I14+'ASY - 170'!I14)/4</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="F7" s="26">
+        <f>('ASY - 17'!J14+'ASY - 47'!J14+'ASY - 70'!J14+'ASY - 170'!J14)/4</f>
+        <v>0.12</v>
+      </c>
+      <c r="G7" s="37">
+        <f>('ASY - 17'!K14+'ASY - 47'!K14+'ASY - 70'!K14+'ASY - 170'!K14)/4</f>
+        <v>0.74333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="44">
         <f>('SYM - 17'!I14 + 'SYM - 48'!I14 + 'SYM - 96'!I14 +'SYM - 136'!I14+'ASY - 17'!I14+'ASY - 47'!I14+'ASY - 70'!I14+'ASY - 170'!I14)/8</f>
         <v>35.666666666666664</v>
       </c>
-      <c r="B3" s="29">
+      <c r="F8" s="45">
         <f>('SYM - 17'!J14 + 'SYM - 48'!J14 + 'SYM - 96'!J14 +'SYM - 136'!J14+'ASY - 17'!J14+'ASY - 47'!J14+'ASY - 70'!J14+'ASY - 170'!J14)/8</f>
         <v>0.11958333333333332</v>
       </c>
-      <c r="C3" s="30">
+      <c r="G8" s="46">
         <f>('SYM - 17'!K14 + 'SYM - 48'!K14 + 'SYM - 96'!K14 +'SYM - 136'!K14+'ASY - 17'!K14+'ASY - 47'!K14+'ASY - 70'!K14+'ASY - 170'!K14)/8</f>
         <v>0.78166666666666662</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>